--- a/Code/Results/Cases/Case_1_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9997335096549715</v>
+        <v>1.025203800266516</v>
       </c>
       <c r="D2">
-        <v>1.04472719872086</v>
+        <v>1.053124818602783</v>
       </c>
       <c r="E2">
-        <v>1.006242969250996</v>
+        <v>1.025592506232896</v>
       </c>
       <c r="F2">
-        <v>1.042648848345559</v>
+        <v>1.057016744503547</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050545644533035</v>
+        <v>1.041008870720184</v>
       </c>
       <c r="J2">
-        <v>1.021922194326003</v>
+        <v>1.03037413121906</v>
       </c>
       <c r="K2">
-        <v>1.055596691088766</v>
+        <v>1.055871652524516</v>
       </c>
       <c r="L2">
-        <v>1.017616009414129</v>
+        <v>1.028417625384855</v>
       </c>
       <c r="M2">
-        <v>1.053544350451035</v>
+        <v>1.059752868684721</v>
       </c>
       <c r="N2">
-        <v>1.011244002477038</v>
+        <v>1.014162600421638</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003347069164415</v>
+        <v>1.025978396270902</v>
       </c>
       <c r="D3">
-        <v>1.047518309111601</v>
+        <v>1.053743977164223</v>
       </c>
       <c r="E3">
-        <v>1.009062448926522</v>
+        <v>1.026245666950282</v>
       </c>
       <c r="F3">
-        <v>1.045910912065379</v>
+        <v>1.057763787259586</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051548846033863</v>
+        <v>1.041181266677427</v>
       </c>
       <c r="J3">
-        <v>1.023746903716714</v>
+        <v>1.03078886405342</v>
       </c>
       <c r="K3">
-        <v>1.057577249092463</v>
+        <v>1.056304290386878</v>
       </c>
       <c r="L3">
-        <v>1.019580672479796</v>
+        <v>1.028878540275439</v>
       </c>
       <c r="M3">
-        <v>1.055988214337628</v>
+        <v>1.060313834279636</v>
       </c>
       <c r="N3">
-        <v>1.011858503654409</v>
+        <v>1.014301233051976</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005645262185947</v>
+        <v>1.026480401254202</v>
       </c>
       <c r="D4">
-        <v>1.04929566139446</v>
+        <v>1.054145152940768</v>
       </c>
       <c r="E4">
-        <v>1.010861485182303</v>
+        <v>1.026669376181177</v>
       </c>
       <c r="F4">
-        <v>1.047989882716069</v>
+        <v>1.058248113473574</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052179176034424</v>
+        <v>1.041292008847004</v>
       </c>
       <c r="J4">
-        <v>1.024905655713082</v>
+        <v>1.031057338907496</v>
       </c>
       <c r="K4">
-        <v>1.058833421561363</v>
+        <v>1.05658408016659</v>
       </c>
       <c r="L4">
-        <v>1.020830565555019</v>
+        <v>1.029177168360221</v>
       </c>
       <c r="M4">
-        <v>1.057541660167675</v>
+        <v>1.06067708706102</v>
       </c>
       <c r="N4">
-        <v>1.012248595185124</v>
+        <v>1.014390940003419</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.006602118785351</v>
+        <v>1.026691631299372</v>
       </c>
       <c r="D5">
-        <v>1.050036150660591</v>
+        <v>1.054313934122284</v>
       </c>
       <c r="E5">
-        <v>1.011611893685697</v>
+        <v>1.026847757875631</v>
       </c>
       <c r="F5">
-        <v>1.048856461667925</v>
+        <v>1.058451946893091</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052439735694511</v>
+        <v>1.041338370222849</v>
       </c>
       <c r="J5">
-        <v>1.025387661715217</v>
+        <v>1.031170231956814</v>
       </c>
       <c r="K5">
-        <v>1.059355561293319</v>
+        <v>1.056701664886034</v>
       </c>
       <c r="L5">
-        <v>1.021351027379564</v>
+        <v>1.029302802409559</v>
       </c>
       <c r="M5">
-        <v>1.058188199107812</v>
+        <v>1.060829861442</v>
       </c>
       <c r="N5">
-        <v>1.012410826516389</v>
+        <v>1.014428652896054</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.006762241508255</v>
+        <v>1.026727108673518</v>
       </c>
       <c r="D6">
-        <v>1.050160093072877</v>
+        <v>1.054342280604775</v>
       </c>
       <c r="E6">
-        <v>1.011737548878092</v>
+        <v>1.026877723804166</v>
       </c>
       <c r="F6">
-        <v>1.049001534448496</v>
+        <v>1.058486184413326</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05248322699931</v>
+        <v>1.041346143064532</v>
       </c>
       <c r="J6">
-        <v>1.025468295115645</v>
+        <v>1.031189188696183</v>
       </c>
       <c r="K6">
-        <v>1.059442885073668</v>
+        <v>1.056721405550114</v>
       </c>
       <c r="L6">
-        <v>1.021438125924344</v>
+        <v>1.029323902201883</v>
       </c>
       <c r="M6">
-        <v>1.058296377167588</v>
+        <v>1.060855516568046</v>
       </c>
       <c r="N6">
-        <v>1.012437963611988</v>
+        <v>1.014434985048086</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005658083947575</v>
+        <v>1.026483222987378</v>
       </c>
       <c r="D7">
-        <v>1.049305582007541</v>
+        <v>1.05414740770725</v>
       </c>
       <c r="E7">
-        <v>1.010871535171792</v>
+        <v>1.026671758729224</v>
       </c>
       <c r="F7">
-        <v>1.048001490891109</v>
+        <v>1.058250836233571</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052182674962903</v>
+        <v>1.04129262909578</v>
       </c>
       <c r="J7">
-        <v>1.024912116311022</v>
+        <v>1.031058847288555</v>
       </c>
       <c r="K7">
-        <v>1.058840421659804</v>
+        <v>1.056585651494234</v>
       </c>
       <c r="L7">
-        <v>1.020837539449784</v>
+        <v>1.029178846733564</v>
       </c>
       <c r="M7">
-        <v>1.057550324715499</v>
+        <v>1.060679128194906</v>
       </c>
       <c r="N7">
-        <v>1.01225076980403</v>
+        <v>1.014391443925181</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000963186379418</v>
+        <v>1.025465413998526</v>
       </c>
       <c r="D8">
-        <v>1.045676502918122</v>
+        <v>1.053333953315959</v>
       </c>
       <c r="E8">
-        <v>1.007201176251302</v>
+        <v>1.025813022107092</v>
       </c>
       <c r="F8">
-        <v>1.043757981668743</v>
+        <v>1.05726901519106</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.050888619701158</v>
+        <v>1.041067299865152</v>
       </c>
       <c r="J8">
-        <v>1.022543485494673</v>
+        <v>1.030514267530606</v>
       </c>
       <c r="K8">
-        <v>1.056271359628028</v>
+        <v>1.056017895826827</v>
       </c>
       <c r="L8">
-        <v>1.018284478629977</v>
+        <v>1.028573313075778</v>
       </c>
       <c r="M8">
-        <v>1.054376133587064</v>
+        <v>1.059942392504485</v>
       </c>
       <c r="N8">
-        <v>1.011453260130538</v>
+        <v>1.014209451190849</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9923706321723902</v>
+        <v>1.023678034762174</v>
       </c>
       <c r="D9">
-        <v>1.039054584606582</v>
+        <v>1.051904762093037</v>
       </c>
       <c r="E9">
-        <v>1.000531678094577</v>
+        <v>1.024308104550669</v>
       </c>
       <c r="F9">
-        <v>1.036027770423384</v>
+        <v>1.055546217330628</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048460909788909</v>
+        <v>1.04066407744947</v>
       </c>
       <c r="J9">
-        <v>1.018195709836079</v>
+        <v>1.029555586759834</v>
       </c>
       <c r="K9">
-        <v>1.051544285000833</v>
+        <v>1.055016314703544</v>
       </c>
       <c r="L9">
-        <v>1.013616135078297</v>
+        <v>1.027509300535004</v>
       </c>
       <c r="M9">
-        <v>1.048562166635606</v>
+        <v>1.058646324036989</v>
       </c>
       <c r="N9">
-        <v>1.009988383713573</v>
+        <v>1.013888795978795</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9864083250768169</v>
+        <v>1.022490682505065</v>
       </c>
       <c r="D10">
-        <v>1.034476633822422</v>
+        <v>1.050954930557432</v>
       </c>
       <c r="E10">
-        <v>0.9959384442757445</v>
+        <v>1.02331051477969</v>
       </c>
       <c r="F10">
-        <v>1.030691283123723</v>
+        <v>1.054402726477172</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046738380449139</v>
+        <v>1.040391168057059</v>
       </c>
       <c r="J10">
-        <v>1.015171774065264</v>
+        <v>1.028917175248709</v>
       </c>
       <c r="K10">
-        <v>1.048250106027874</v>
+        <v>1.054347934279023</v>
       </c>
       <c r="L10">
-        <v>1.010381420640173</v>
+        <v>1.026802072597778</v>
       </c>
       <c r="M10">
-        <v>1.044527659225911</v>
+        <v>1.057783837583779</v>
       </c>
       <c r="N10">
-        <v>1.008969000285114</v>
+        <v>1.013675080745094</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9837665665341245</v>
+        <v>1.021977573866034</v>
       </c>
       <c r="D11">
-        <v>1.032453069632796</v>
+        <v>1.050544372411314</v>
       </c>
       <c r="E11">
-        <v>0.993912043690327</v>
+        <v>1.022879921610016</v>
       </c>
       <c r="F11">
-        <v>1.028334015556888</v>
+        <v>1.053908806743609</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045966655016952</v>
+        <v>1.040272034630785</v>
       </c>
       <c r="J11">
-        <v>1.013830623951638</v>
+        <v>1.028640920740197</v>
       </c>
       <c r="K11">
-        <v>1.046787865175922</v>
+        <v>1.054058381956929</v>
       </c>
       <c r="L11">
-        <v>1.00894969049634</v>
+        <v>1.026496354810055</v>
       </c>
       <c r="M11">
-        <v>1.042740670015576</v>
+        <v>1.057410764801405</v>
       </c>
       <c r="N11">
-        <v>1.008516792152333</v>
+        <v>1.01358255875893</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9827758700399823</v>
+        <v>1.02178713805256</v>
       </c>
       <c r="D12">
-        <v>1.031694999270334</v>
+        <v>1.050391983963421</v>
       </c>
       <c r="E12">
-        <v>0.9931534769868828</v>
+        <v>1.02272018797141</v>
       </c>
       <c r="F12">
-        <v>1.027451151461747</v>
+        <v>1.053725528504605</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045676010985971</v>
+        <v>1.040227639504115</v>
       </c>
       <c r="J12">
-        <v>1.01332750747238</v>
+        <v>1.028538336185393</v>
       </c>
       <c r="K12">
-        <v>1.046239163095495</v>
+        <v>1.053950810063023</v>
       </c>
       <c r="L12">
-        <v>1.008413031657849</v>
+        <v>1.026382876716472</v>
       </c>
       <c r="M12">
-        <v>1.042070673690305</v>
+        <v>1.057272249399362</v>
       </c>
       <c r="N12">
-        <v>1.008347139081883</v>
+        <v>1.013548195186474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.982988811339477</v>
+        <v>1.021827980109636</v>
       </c>
       <c r="D13">
-        <v>1.031857902600533</v>
+        <v>1.050424666739098</v>
       </c>
       <c r="E13">
-        <v>0.9933164617533411</v>
+        <v>1.022754441941318</v>
       </c>
       <c r="F13">
-        <v>1.027640862419376</v>
+        <v>1.053764833875198</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045738537472492</v>
+        <v>1.040237168897248</v>
       </c>
       <c r="J13">
-        <v>1.013435654842042</v>
+        <v>1.0285603396017</v>
       </c>
       <c r="K13">
-        <v>1.046357116117117</v>
+        <v>1.053973885445047</v>
       </c>
       <c r="L13">
-        <v>1.008528369316013</v>
+        <v>1.026407214549108</v>
       </c>
       <c r="M13">
-        <v>1.04221467564409</v>
+        <v>1.057301958657505</v>
       </c>
       <c r="N13">
-        <v>1.008383607375747</v>
+        <v>1.013555566136166</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9836848700631665</v>
+        <v>1.021961829197315</v>
       </c>
       <c r="D14">
-        <v>1.032390539788532</v>
+        <v>1.050531773655121</v>
       </c>
       <c r="E14">
-        <v>0.9938494615174275</v>
+        <v>1.022866713726017</v>
       </c>
       <c r="F14">
-        <v>1.028261187701315</v>
+        <v>1.053893653108634</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045942712334196</v>
+        <v>1.040268367841677</v>
       </c>
       <c r="J14">
-        <v>1.013789138320025</v>
+        <v>1.028632440476274</v>
       </c>
       <c r="K14">
-        <v>1.04674262377798</v>
+        <v>1.054049490414216</v>
       </c>
       <c r="L14">
-        <v>1.008905430141159</v>
+        <v>1.026486973053085</v>
       </c>
       <c r="M14">
-        <v>1.042685416268163</v>
+        <v>1.057399313831024</v>
       </c>
       <c r="N14">
-        <v>1.00850280325823</v>
+        <v>1.013579718186939</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9841124726590924</v>
+        <v>1.022044318711556</v>
       </c>
       <c r="D15">
-        <v>1.032717856337156</v>
+        <v>1.050597780551633</v>
       </c>
       <c r="E15">
-        <v>0.9941770749573231</v>
+        <v>1.022935915679413</v>
       </c>
       <c r="F15">
-        <v>1.02864241866723</v>
+        <v>1.053973047546197</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046067979120353</v>
+        <v>1.040287571528832</v>
       </c>
       <c r="J15">
-        <v>1.014006269175169</v>
+        <v>1.02867686804393</v>
       </c>
       <c r="K15">
-        <v>1.046979405501266</v>
+        <v>1.054096070626741</v>
       </c>
       <c r="L15">
-        <v>1.009137101431629</v>
+        <v>1.0265361254266</v>
       </c>
       <c r="M15">
-        <v>1.042974623052395</v>
+        <v>1.057459305632766</v>
       </c>
       <c r="N15">
-        <v>1.008576018965331</v>
+        <v>1.013594599502915</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9865823504763518</v>
+        <v>1.022524757547738</v>
       </c>
       <c r="D16">
-        <v>1.034610042283371</v>
+        <v>1.050982193414098</v>
       </c>
       <c r="E16">
-        <v>0.996072119739311</v>
+        <v>1.023339120864422</v>
       </c>
       <c r="F16">
-        <v>1.030846723314561</v>
+        <v>1.054435532194035</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046789043599026</v>
+        <v>1.040399054356678</v>
       </c>
       <c r="J16">
-        <v>1.015260097265908</v>
+        <v>1.02893551329747</v>
       </c>
       <c r="K16">
-        <v>1.048346380196793</v>
+        <v>1.054367148120711</v>
       </c>
       <c r="L16">
-        <v>1.010475769812608</v>
+        <v>1.026822373091823</v>
       </c>
       <c r="M16">
-        <v>1.044645394405381</v>
+        <v>1.057808605566475</v>
       </c>
       <c r="N16">
-        <v>1.008998779165124</v>
+        <v>1.013681221548249</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9881152830520026</v>
+        <v>1.022826399309535</v>
       </c>
       <c r="D17">
-        <v>1.035785751918421</v>
+        <v>1.051223521135822</v>
       </c>
       <c r="E17">
-        <v>0.9972506276145919</v>
+        <v>1.023592408997346</v>
       </c>
       <c r="F17">
-        <v>1.032216774504329</v>
+        <v>1.054725964708444</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047234352144492</v>
+        <v>1.040468727665444</v>
       </c>
       <c r="J17">
-        <v>1.016037960965247</v>
+        <v>1.029097804276847</v>
       </c>
       <c r="K17">
-        <v>1.049194130371874</v>
+        <v>1.054537151766154</v>
       </c>
       <c r="L17">
-        <v>1.011307035631534</v>
+        <v>1.027002068047753</v>
       </c>
       <c r="M17">
-        <v>1.045682561094344</v>
+        <v>1.058027817831401</v>
       </c>
       <c r="N17">
-        <v>1.009261031090047</v>
+        <v>1.013735562466451</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9890036524779318</v>
+        <v>1.023002440394364</v>
       </c>
       <c r="D18">
-        <v>1.036467556275806</v>
+        <v>1.051364353336133</v>
       </c>
       <c r="E18">
-        <v>0.9979344297563013</v>
+        <v>1.023740279707542</v>
       </c>
       <c r="F18">
-        <v>1.03301143193074</v>
+        <v>1.054895486572827</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047491605515291</v>
+        <v>1.040509274065831</v>
       </c>
       <c r="J18">
-        <v>1.016488623474745</v>
+        <v>1.029192483318949</v>
       </c>
       <c r="K18">
-        <v>1.049685163061729</v>
+        <v>1.05463629847666</v>
       </c>
       <c r="L18">
-        <v>1.011788913141573</v>
+        <v>1.027106930817275</v>
       </c>
       <c r="M18">
-        <v>1.046283676608107</v>
+        <v>1.058155718093651</v>
       </c>
       <c r="N18">
-        <v>1.009412959496642</v>
+        <v>1.01376726032016</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.989305597850457</v>
+        <v>1.023062482511883</v>
       </c>
       <c r="D19">
-        <v>1.036699367735187</v>
+        <v>1.051412385253913</v>
       </c>
       <c r="E19">
-        <v>0.9981669847387192</v>
+        <v>1.02379072213038</v>
       </c>
       <c r="F19">
-        <v>1.033281639586889</v>
+        <v>1.054953309005031</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047578903454927</v>
+        <v>1.040523083564016</v>
       </c>
       <c r="J19">
-        <v>1.016641775376784</v>
+        <v>1.029224769346155</v>
       </c>
       <c r="K19">
-        <v>1.049852013284331</v>
+        <v>1.054670102596223</v>
       </c>
       <c r="L19">
-        <v>1.011952719835679</v>
+        <v>1.027142694703367</v>
       </c>
       <c r="M19">
-        <v>1.046487995459994</v>
+        <v>1.058199335072867</v>
       </c>
       <c r="N19">
-        <v>1.009464588714678</v>
+        <v>1.013778068745179</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9879514130012633</v>
+        <v>1.022794025795965</v>
       </c>
       <c r="D20">
-        <v>1.035660021347693</v>
+        <v>1.051197621717342</v>
       </c>
       <c r="E20">
-        <v>0.9971245590770152</v>
+        <v>1.023565219906824</v>
       </c>
       <c r="F20">
-        <v>1.032070245329008</v>
+        <v>1.054694791878551</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047186832800579</v>
+        <v>1.040461261977875</v>
       </c>
       <c r="J20">
-        <v>1.015954820536774</v>
+        <v>1.029080390175058</v>
       </c>
       <c r="K20">
-        <v>1.049103532446154</v>
+        <v>1.054518913372527</v>
       </c>
       <c r="L20">
-        <v>1.011218158791018</v>
+        <v>1.026982783323777</v>
       </c>
       <c r="M20">
-        <v>1.045571682290922</v>
+        <v>1.058004294541824</v>
       </c>
       <c r="N20">
-        <v>1.009233001794939</v>
+        <v>1.013729732019227</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9834801618262538</v>
+        <v>1.021922409666792</v>
       </c>
       <c r="D21">
-        <v>1.032233870745902</v>
+        <v>1.050500230252781</v>
       </c>
       <c r="E21">
-        <v>0.993692670415169</v>
+        <v>1.022833646730029</v>
       </c>
       <c r="F21">
-        <v>1.02807872036284</v>
+        <v>1.053855713914417</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045882698971244</v>
+        <v>1.040259184489331</v>
       </c>
       <c r="J21">
-        <v>1.0136851844935</v>
+        <v>1.028611207763566</v>
       </c>
       <c r="K21">
-        <v>1.046629256343673</v>
+        <v>1.054027227153941</v>
       </c>
       <c r="L21">
-        <v>1.00879453052959</v>
+        <v>1.026463483965912</v>
       </c>
       <c r="M21">
-        <v>1.042546968629202</v>
+        <v>1.057370643475108</v>
       </c>
       <c r="N21">
-        <v>1.008467749986036</v>
+        <v>1.013572605917338</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9806141317754036</v>
+        <v>1.021375291113245</v>
       </c>
       <c r="D22">
-        <v>1.030042400100743</v>
+        <v>1.050062396585409</v>
       </c>
       <c r="E22">
-        <v>0.9915008098422613</v>
+        <v>1.022374881125353</v>
       </c>
       <c r="F22">
-        <v>1.025526880150532</v>
+        <v>1.053329226943349</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045039591972741</v>
+        <v>1.040131299551647</v>
       </c>
       <c r="J22">
-        <v>1.012229417326177</v>
+        <v>1.028316380699173</v>
       </c>
       <c r="K22">
-        <v>1.045041314317964</v>
+        <v>1.053717973839698</v>
       </c>
       <c r="L22">
-        <v>1.007242538772247</v>
+        <v>1.026137438263808</v>
       </c>
       <c r="M22">
-        <v>1.040609057089827</v>
+        <v>1.056972592536416</v>
       </c>
       <c r="N22">
-        <v>1.007976837876444</v>
+        <v>1.013473833330998</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9821388034081792</v>
+        <v>1.021665242951769</v>
       </c>
       <c r="D23">
-        <v>1.031207755619139</v>
+        <v>1.050294438724092</v>
       </c>
       <c r="E23">
-        <v>0.9926660709417854</v>
+        <v>1.022617966694865</v>
       </c>
       <c r="F23">
-        <v>1.026883756714259</v>
+        <v>1.053608225000698</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04548876975359</v>
+        <v>1.04019917224601</v>
       </c>
       <c r="J23">
-        <v>1.013003935904523</v>
+        <v>1.028472657869971</v>
       </c>
       <c r="K23">
-        <v>1.045886232104595</v>
+        <v>1.053881924815465</v>
       </c>
       <c r="L23">
-        <v>1.008068011366899</v>
+        <v>1.026310237308245</v>
       </c>
       <c r="M23">
-        <v>1.041639882738646</v>
+        <v>1.057183572994846</v>
       </c>
       <c r="N23">
-        <v>1.008238026099098</v>
+        <v>1.01352619259939</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9880254766073819</v>
+        <v>1.022808653689003</v>
       </c>
       <c r="D24">
-        <v>1.035716845824638</v>
+        <v>1.051209324334281</v>
       </c>
       <c r="E24">
-        <v>0.9971815351359478</v>
+        <v>1.023577505078828</v>
       </c>
       <c r="F24">
-        <v>1.032136469351005</v>
+        <v>1.054708877175849</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047208312426467</v>
+        <v>1.04046463568777</v>
       </c>
       <c r="J24">
-        <v>1.015992397537147</v>
+        <v>1.029088258804308</v>
       </c>
       <c r="K24">
-        <v>1.049144480384771</v>
+        <v>1.0545271545596</v>
       </c>
       <c r="L24">
-        <v>1.011258327623779</v>
+        <v>1.026991497106949</v>
       </c>
       <c r="M24">
-        <v>1.045621795520437</v>
+        <v>1.058014923588359</v>
       </c>
       <c r="N24">
-        <v>1.009245670232639</v>
+        <v>1.013732366542124</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9946317865856316</v>
+        <v>1.024139377112836</v>
       </c>
       <c r="D25">
-        <v>1.040794483451737</v>
+        <v>1.052273729296523</v>
       </c>
       <c r="E25">
-        <v>1.002280943080648</v>
+        <v>1.024696167748393</v>
       </c>
       <c r="F25">
-        <v>1.038057469004088</v>
+        <v>1.055990723261937</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049106494090745</v>
+        <v>1.040769045417153</v>
       </c>
       <c r="J25">
-        <v>1.0193411730178</v>
+        <v>1.029803309469629</v>
       </c>
       <c r="K25">
-        <v>1.052790883796263</v>
+        <v>1.055275370686986</v>
       </c>
       <c r="L25">
-        <v>1.014843953239054</v>
+        <v>1.02778400704869</v>
       </c>
       <c r="M25">
-        <v>1.050092381774693</v>
+        <v>1.058981122105692</v>
       </c>
       <c r="N25">
-        <v>1.010374422602266</v>
+        <v>1.01397168544596</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_179/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_179/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025203800266516</v>
+        <v>0.999733509654971</v>
       </c>
       <c r="D2">
-        <v>1.053124818602783</v>
+        <v>1.04472719872086</v>
       </c>
       <c r="E2">
-        <v>1.025592506232896</v>
+        <v>1.006242969250995</v>
       </c>
       <c r="F2">
-        <v>1.057016744503547</v>
+        <v>1.042648848345559</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.041008870720184</v>
+        <v>1.050545644533035</v>
       </c>
       <c r="J2">
-        <v>1.03037413121906</v>
+        <v>1.021922194326003</v>
       </c>
       <c r="K2">
-        <v>1.055871652524516</v>
+        <v>1.055596691088766</v>
       </c>
       <c r="L2">
-        <v>1.028417625384855</v>
+        <v>1.017616009414129</v>
       </c>
       <c r="M2">
-        <v>1.059752868684721</v>
+        <v>1.053544350451035</v>
       </c>
       <c r="N2">
-        <v>1.014162600421638</v>
+        <v>1.011244002477038</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025978396270902</v>
+        <v>1.003347069164415</v>
       </c>
       <c r="D3">
-        <v>1.053743977164223</v>
+        <v>1.047518309111601</v>
       </c>
       <c r="E3">
-        <v>1.026245666950282</v>
+        <v>1.009062448926521</v>
       </c>
       <c r="F3">
-        <v>1.057763787259586</v>
+        <v>1.045910912065379</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.041181266677427</v>
+        <v>1.051548846033863</v>
       </c>
       <c r="J3">
-        <v>1.03078886405342</v>
+        <v>1.023746903716714</v>
       </c>
       <c r="K3">
-        <v>1.056304290386878</v>
+        <v>1.057577249092463</v>
       </c>
       <c r="L3">
-        <v>1.028878540275439</v>
+        <v>1.019580672479796</v>
       </c>
       <c r="M3">
-        <v>1.060313834279636</v>
+        <v>1.055988214337628</v>
       </c>
       <c r="N3">
-        <v>1.014301233051976</v>
+        <v>1.011858503654409</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026480401254202</v>
+        <v>1.005645262185946</v>
       </c>
       <c r="D4">
-        <v>1.054145152940768</v>
+        <v>1.04929566139446</v>
       </c>
       <c r="E4">
-        <v>1.026669376181177</v>
+        <v>1.010861485182303</v>
       </c>
       <c r="F4">
-        <v>1.058248113473574</v>
+        <v>1.047989882716068</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.041292008847004</v>
+        <v>1.052179176034424</v>
       </c>
       <c r="J4">
-        <v>1.031057338907496</v>
+        <v>1.024905655713082</v>
       </c>
       <c r="K4">
-        <v>1.05658408016659</v>
+        <v>1.058833421561363</v>
       </c>
       <c r="L4">
-        <v>1.029177168360221</v>
+        <v>1.020830565555019</v>
       </c>
       <c r="M4">
-        <v>1.06067708706102</v>
+        <v>1.057541660167674</v>
       </c>
       <c r="N4">
-        <v>1.014390940003419</v>
+        <v>1.012248595185123</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026691631299372</v>
+        <v>1.006602118785351</v>
       </c>
       <c r="D5">
-        <v>1.054313934122284</v>
+        <v>1.050036150660591</v>
       </c>
       <c r="E5">
-        <v>1.026847757875631</v>
+        <v>1.011611893685698</v>
       </c>
       <c r="F5">
-        <v>1.058451946893091</v>
+        <v>1.048856461667925</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041338370222849</v>
+        <v>1.052439735694511</v>
       </c>
       <c r="J5">
-        <v>1.031170231956814</v>
+        <v>1.025387661715217</v>
       </c>
       <c r="K5">
-        <v>1.056701664886034</v>
+        <v>1.059355561293319</v>
       </c>
       <c r="L5">
-        <v>1.029302802409559</v>
+        <v>1.021351027379564</v>
       </c>
       <c r="M5">
-        <v>1.060829861442</v>
+        <v>1.058188199107812</v>
       </c>
       <c r="N5">
-        <v>1.014428652896054</v>
+        <v>1.012410826516388</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.026727108673518</v>
+        <v>1.006762241508255</v>
       </c>
       <c r="D6">
-        <v>1.054342280604775</v>
+        <v>1.050160093072877</v>
       </c>
       <c r="E6">
-        <v>1.026877723804166</v>
+        <v>1.011737548878092</v>
       </c>
       <c r="F6">
-        <v>1.058486184413326</v>
+        <v>1.049001534448496</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041346143064532</v>
+        <v>1.05248322699931</v>
       </c>
       <c r="J6">
-        <v>1.031189188696183</v>
+        <v>1.025468295115645</v>
       </c>
       <c r="K6">
-        <v>1.056721405550114</v>
+        <v>1.059442885073668</v>
       </c>
       <c r="L6">
-        <v>1.029323902201883</v>
+        <v>1.021438125924343</v>
       </c>
       <c r="M6">
-        <v>1.060855516568046</v>
+        <v>1.058296377167588</v>
       </c>
       <c r="N6">
-        <v>1.014434985048086</v>
+        <v>1.012437963611988</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026483222987378</v>
+        <v>1.005658083947574</v>
       </c>
       <c r="D7">
-        <v>1.05414740770725</v>
+        <v>1.049305582007541</v>
       </c>
       <c r="E7">
-        <v>1.026671758729224</v>
+        <v>1.010871535171792</v>
       </c>
       <c r="F7">
-        <v>1.058250836233571</v>
+        <v>1.048001490891109</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04129262909578</v>
+        <v>1.052182674962903</v>
       </c>
       <c r="J7">
-        <v>1.031058847288555</v>
+        <v>1.024912116311021</v>
       </c>
       <c r="K7">
-        <v>1.056585651494234</v>
+        <v>1.058840421659804</v>
       </c>
       <c r="L7">
-        <v>1.029178846733564</v>
+        <v>1.020837539449784</v>
       </c>
       <c r="M7">
-        <v>1.060679128194906</v>
+        <v>1.057550324715499</v>
       </c>
       <c r="N7">
-        <v>1.014391443925181</v>
+        <v>1.01225076980403</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025465413998526</v>
+        <v>1.000963186379418</v>
       </c>
       <c r="D8">
-        <v>1.053333953315959</v>
+        <v>1.045676502918121</v>
       </c>
       <c r="E8">
-        <v>1.025813022107092</v>
+        <v>1.007201176251302</v>
       </c>
       <c r="F8">
-        <v>1.05726901519106</v>
+        <v>1.043757981668742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041067299865152</v>
+        <v>1.050888619701157</v>
       </c>
       <c r="J8">
-        <v>1.030514267530606</v>
+        <v>1.022543485494672</v>
       </c>
       <c r="K8">
-        <v>1.056017895826827</v>
+        <v>1.056271359628027</v>
       </c>
       <c r="L8">
-        <v>1.028573313075778</v>
+        <v>1.018284478629976</v>
       </c>
       <c r="M8">
-        <v>1.059942392504485</v>
+        <v>1.054376133587063</v>
       </c>
       <c r="N8">
-        <v>1.014209451190849</v>
+        <v>1.011453260130538</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023678034762174</v>
+        <v>0.9923706321723902</v>
       </c>
       <c r="D9">
-        <v>1.051904762093037</v>
+        <v>1.039054584606581</v>
       </c>
       <c r="E9">
-        <v>1.024308104550669</v>
+        <v>1.000531678094577</v>
       </c>
       <c r="F9">
-        <v>1.055546217330628</v>
+        <v>1.036027770423384</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04066407744947</v>
+        <v>1.048460909788909</v>
       </c>
       <c r="J9">
-        <v>1.029555586759834</v>
+        <v>1.018195709836079</v>
       </c>
       <c r="K9">
-        <v>1.055016314703544</v>
+        <v>1.051544285000833</v>
       </c>
       <c r="L9">
-        <v>1.027509300535004</v>
+        <v>1.013616135078297</v>
       </c>
       <c r="M9">
-        <v>1.058646324036989</v>
+        <v>1.048562166635605</v>
       </c>
       <c r="N9">
-        <v>1.013888795978795</v>
+        <v>1.009988383713573</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022490682505065</v>
+        <v>0.9864083250768165</v>
       </c>
       <c r="D10">
-        <v>1.050954930557432</v>
+        <v>1.034476633822423</v>
       </c>
       <c r="E10">
-        <v>1.02331051477969</v>
+        <v>0.9959384442757444</v>
       </c>
       <c r="F10">
-        <v>1.054402726477172</v>
+        <v>1.030691283123724</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040391168057059</v>
+        <v>1.04673838044914</v>
       </c>
       <c r="J10">
-        <v>1.028917175248709</v>
+        <v>1.015171774065264</v>
       </c>
       <c r="K10">
-        <v>1.054347934279023</v>
+        <v>1.048250106027875</v>
       </c>
       <c r="L10">
-        <v>1.026802072597778</v>
+        <v>1.010381420640173</v>
       </c>
       <c r="M10">
-        <v>1.057783837583779</v>
+        <v>1.044527659225912</v>
       </c>
       <c r="N10">
-        <v>1.013675080745094</v>
+        <v>1.008969000285113</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021977573866034</v>
+        <v>0.983766566534124</v>
       </c>
       <c r="D11">
-        <v>1.050544372411314</v>
+        <v>1.032453069632796</v>
       </c>
       <c r="E11">
-        <v>1.022879921610016</v>
+        <v>0.9939120436903264</v>
       </c>
       <c r="F11">
-        <v>1.053908806743609</v>
+        <v>1.028334015556887</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040272034630785</v>
+        <v>1.045966655016952</v>
       </c>
       <c r="J11">
-        <v>1.028640920740197</v>
+        <v>1.013830623951638</v>
       </c>
       <c r="K11">
-        <v>1.054058381956929</v>
+        <v>1.046787865175922</v>
       </c>
       <c r="L11">
-        <v>1.026496354810055</v>
+        <v>1.00894969049634</v>
       </c>
       <c r="M11">
-        <v>1.057410764801405</v>
+        <v>1.042740670015576</v>
       </c>
       <c r="N11">
-        <v>1.01358255875893</v>
+        <v>1.008516792152333</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02178713805256</v>
+        <v>0.9827758700399817</v>
       </c>
       <c r="D12">
-        <v>1.050391983963421</v>
+        <v>1.031694999270334</v>
       </c>
       <c r="E12">
-        <v>1.02272018797141</v>
+        <v>0.9931534769868822</v>
       </c>
       <c r="F12">
-        <v>1.053725528504605</v>
+        <v>1.027451151461747</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040227639504115</v>
+        <v>1.045676010985971</v>
       </c>
       <c r="J12">
-        <v>1.028538336185393</v>
+        <v>1.013327507472379</v>
       </c>
       <c r="K12">
-        <v>1.053950810063023</v>
+        <v>1.046239163095495</v>
       </c>
       <c r="L12">
-        <v>1.026382876716472</v>
+        <v>1.008413031657848</v>
       </c>
       <c r="M12">
-        <v>1.057272249399362</v>
+        <v>1.042070673690304</v>
       </c>
       <c r="N12">
-        <v>1.013548195186474</v>
+        <v>1.008347139081883</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021827980109636</v>
+        <v>0.9829888113394759</v>
       </c>
       <c r="D13">
-        <v>1.050424666739098</v>
+        <v>1.031857902600532</v>
       </c>
       <c r="E13">
-        <v>1.022754441941318</v>
+        <v>0.9933164617533398</v>
       </c>
       <c r="F13">
-        <v>1.053764833875198</v>
+        <v>1.027640862419376</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040237168897248</v>
+        <v>1.045738537472491</v>
       </c>
       <c r="J13">
-        <v>1.0285603396017</v>
+        <v>1.01343565484204</v>
       </c>
       <c r="K13">
-        <v>1.053973885445047</v>
+        <v>1.046357116117117</v>
       </c>
       <c r="L13">
-        <v>1.026407214549108</v>
+        <v>1.008528369316011</v>
       </c>
       <c r="M13">
-        <v>1.057301958657505</v>
+        <v>1.04221467564409</v>
       </c>
       <c r="N13">
-        <v>1.013555566136166</v>
+        <v>1.008383607375747</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021961829197315</v>
+        <v>0.9836848700631661</v>
       </c>
       <c r="D14">
-        <v>1.050531773655121</v>
+        <v>1.032390539788531</v>
       </c>
       <c r="E14">
-        <v>1.022866713726017</v>
+        <v>0.993849461517427</v>
       </c>
       <c r="F14">
-        <v>1.053893653108634</v>
+        <v>1.028261187701314</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040268367841677</v>
+        <v>1.045942712334196</v>
       </c>
       <c r="J14">
-        <v>1.028632440476274</v>
+        <v>1.013789138320025</v>
       </c>
       <c r="K14">
-        <v>1.054049490414216</v>
+        <v>1.046742623777979</v>
       </c>
       <c r="L14">
-        <v>1.026486973053085</v>
+        <v>1.008905430141158</v>
       </c>
       <c r="M14">
-        <v>1.057399313831024</v>
+        <v>1.042685416268162</v>
       </c>
       <c r="N14">
-        <v>1.013579718186939</v>
+        <v>1.00850280325823</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022044318711556</v>
+        <v>0.9841124726590922</v>
       </c>
       <c r="D15">
-        <v>1.050597780551633</v>
+        <v>1.032717856337156</v>
       </c>
       <c r="E15">
-        <v>1.022935915679413</v>
+        <v>0.9941770749573228</v>
       </c>
       <c r="F15">
-        <v>1.053973047546197</v>
+        <v>1.02864241866723</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040287571528832</v>
+        <v>1.046067979120353</v>
       </c>
       <c r="J15">
-        <v>1.02867686804393</v>
+        <v>1.014006269175169</v>
       </c>
       <c r="K15">
-        <v>1.054096070626741</v>
+        <v>1.046979405501267</v>
       </c>
       <c r="L15">
-        <v>1.0265361254266</v>
+        <v>1.009137101431629</v>
       </c>
       <c r="M15">
-        <v>1.057459305632766</v>
+        <v>1.042974623052396</v>
       </c>
       <c r="N15">
-        <v>1.013594599502915</v>
+        <v>1.008576018965331</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022524757547738</v>
+        <v>0.9865823504763515</v>
       </c>
       <c r="D16">
-        <v>1.050982193414098</v>
+        <v>1.034610042283372</v>
       </c>
       <c r="E16">
-        <v>1.023339120864422</v>
+        <v>0.9960721197393105</v>
       </c>
       <c r="F16">
-        <v>1.054435532194035</v>
+        <v>1.030846723314561</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040399054356678</v>
+        <v>1.046789043599027</v>
       </c>
       <c r="J16">
-        <v>1.02893551329747</v>
+        <v>1.015260097265907</v>
       </c>
       <c r="K16">
-        <v>1.054367148120711</v>
+        <v>1.048346380196793</v>
       </c>
       <c r="L16">
-        <v>1.026822373091823</v>
+        <v>1.010475769812607</v>
       </c>
       <c r="M16">
-        <v>1.057808605566475</v>
+        <v>1.044645394405382</v>
       </c>
       <c r="N16">
-        <v>1.013681221548249</v>
+        <v>1.008998779165124</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022826399309535</v>
+        <v>0.9881152830520024</v>
       </c>
       <c r="D17">
-        <v>1.051223521135822</v>
+        <v>1.035785751918421</v>
       </c>
       <c r="E17">
-        <v>1.023592408997346</v>
+        <v>0.9972506276145913</v>
       </c>
       <c r="F17">
-        <v>1.054725964708444</v>
+        <v>1.032216774504328</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040468727665444</v>
+        <v>1.047234352144491</v>
       </c>
       <c r="J17">
-        <v>1.029097804276847</v>
+        <v>1.016037960965247</v>
       </c>
       <c r="K17">
-        <v>1.054537151766154</v>
+        <v>1.049194130371874</v>
       </c>
       <c r="L17">
-        <v>1.027002068047753</v>
+        <v>1.011307035631533</v>
       </c>
       <c r="M17">
-        <v>1.058027817831401</v>
+        <v>1.045682561094343</v>
       </c>
       <c r="N17">
-        <v>1.013735562466451</v>
+        <v>1.009261031090047</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023002440394364</v>
+        <v>0.9890036524779313</v>
       </c>
       <c r="D18">
-        <v>1.051364353336133</v>
+        <v>1.036467556275807</v>
       </c>
       <c r="E18">
-        <v>1.023740279707542</v>
+        <v>0.9979344297563009</v>
       </c>
       <c r="F18">
-        <v>1.054895486572827</v>
+        <v>1.033011431930741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040509274065831</v>
+        <v>1.047491605515291</v>
       </c>
       <c r="J18">
-        <v>1.029192483318949</v>
+        <v>1.016488623474745</v>
       </c>
       <c r="K18">
-        <v>1.05463629847666</v>
+        <v>1.049685163061729</v>
       </c>
       <c r="L18">
-        <v>1.027106930817275</v>
+        <v>1.011788913141573</v>
       </c>
       <c r="M18">
-        <v>1.058155718093651</v>
+        <v>1.046283676608107</v>
       </c>
       <c r="N18">
-        <v>1.01376726032016</v>
+        <v>1.009412959496641</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.023062482511883</v>
+        <v>0.989305597850456</v>
       </c>
       <c r="D19">
-        <v>1.051412385253913</v>
+        <v>1.036699367735186</v>
       </c>
       <c r="E19">
-        <v>1.02379072213038</v>
+        <v>0.9981669847387186</v>
       </c>
       <c r="F19">
-        <v>1.054953309005031</v>
+        <v>1.033281639586889</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040523083564016</v>
+        <v>1.047578903454927</v>
       </c>
       <c r="J19">
-        <v>1.029224769346155</v>
+        <v>1.016641775376784</v>
       </c>
       <c r="K19">
-        <v>1.054670102596223</v>
+        <v>1.049852013284331</v>
       </c>
       <c r="L19">
-        <v>1.027142694703367</v>
+        <v>1.011952719835679</v>
       </c>
       <c r="M19">
-        <v>1.058199335072867</v>
+        <v>1.046487995459993</v>
       </c>
       <c r="N19">
-        <v>1.013778068745179</v>
+        <v>1.009464588714678</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022794025795965</v>
+        <v>0.9879514130012631</v>
       </c>
       <c r="D20">
-        <v>1.051197621717342</v>
+        <v>1.035660021347692</v>
       </c>
       <c r="E20">
-        <v>1.023565219906824</v>
+        <v>0.9971245590770145</v>
       </c>
       <c r="F20">
-        <v>1.054694791878551</v>
+        <v>1.032070245329007</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040461261977875</v>
+        <v>1.047186832800579</v>
       </c>
       <c r="J20">
-        <v>1.029080390175058</v>
+        <v>1.015954820536774</v>
       </c>
       <c r="K20">
-        <v>1.054518913372527</v>
+        <v>1.049103532446153</v>
       </c>
       <c r="L20">
-        <v>1.026982783323777</v>
+        <v>1.011218158791017</v>
       </c>
       <c r="M20">
-        <v>1.058004294541824</v>
+        <v>1.045571682290921</v>
       </c>
       <c r="N20">
-        <v>1.013729732019227</v>
+        <v>1.009233001794939</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021922409666792</v>
+        <v>0.9834801618262538</v>
       </c>
       <c r="D21">
-        <v>1.050500230252781</v>
+        <v>1.032233870745902</v>
       </c>
       <c r="E21">
-        <v>1.022833646730029</v>
+        <v>0.9936926704151691</v>
       </c>
       <c r="F21">
-        <v>1.053855713914417</v>
+        <v>1.028078720362841</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040259184489331</v>
+        <v>1.045882698971244</v>
       </c>
       <c r="J21">
-        <v>1.028611207763566</v>
+        <v>1.0136851844935</v>
       </c>
       <c r="K21">
-        <v>1.054027227153941</v>
+        <v>1.046629256343674</v>
       </c>
       <c r="L21">
-        <v>1.026463483965912</v>
+        <v>1.00879453052959</v>
       </c>
       <c r="M21">
-        <v>1.057370643475108</v>
+        <v>1.042546968629203</v>
       </c>
       <c r="N21">
-        <v>1.013572605917338</v>
+        <v>1.008467749986036</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021375291113245</v>
+        <v>0.9806141317754035</v>
       </c>
       <c r="D22">
-        <v>1.050062396585409</v>
+        <v>1.030042400100742</v>
       </c>
       <c r="E22">
-        <v>1.022374881125353</v>
+        <v>0.9915008098422615</v>
       </c>
       <c r="F22">
-        <v>1.053329226943349</v>
+        <v>1.025526880150531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040131299551647</v>
+        <v>1.045039591972741</v>
       </c>
       <c r="J22">
-        <v>1.028316380699173</v>
+        <v>1.012229417326177</v>
       </c>
       <c r="K22">
-        <v>1.053717973839698</v>
+        <v>1.045041314317964</v>
       </c>
       <c r="L22">
-        <v>1.026137438263808</v>
+        <v>1.007242538772247</v>
       </c>
       <c r="M22">
-        <v>1.056972592536416</v>
+        <v>1.040609057089826</v>
       </c>
       <c r="N22">
-        <v>1.013473833330998</v>
+        <v>1.007976837876444</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.021665242951769</v>
+        <v>0.9821388034081788</v>
       </c>
       <c r="D23">
-        <v>1.050294438724092</v>
+        <v>1.031207755619138</v>
       </c>
       <c r="E23">
-        <v>1.022617966694865</v>
+        <v>0.9926660709417851</v>
       </c>
       <c r="F23">
-        <v>1.053608225000698</v>
+        <v>1.026883756714259</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.04019917224601</v>
+        <v>1.045488769753589</v>
       </c>
       <c r="J23">
-        <v>1.028472657869971</v>
+        <v>1.013003935904523</v>
       </c>
       <c r="K23">
-        <v>1.053881924815465</v>
+        <v>1.045886232104595</v>
       </c>
       <c r="L23">
-        <v>1.026310237308245</v>
+        <v>1.008068011366899</v>
       </c>
       <c r="M23">
-        <v>1.057183572994846</v>
+        <v>1.041639882738646</v>
       </c>
       <c r="N23">
-        <v>1.01352619259939</v>
+        <v>1.008238026099098</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022808653689003</v>
+        <v>0.9880254766073816</v>
       </c>
       <c r="D24">
-        <v>1.051209324334281</v>
+        <v>1.035716845824638</v>
       </c>
       <c r="E24">
-        <v>1.023577505078828</v>
+        <v>0.9971815351359476</v>
       </c>
       <c r="F24">
-        <v>1.054708877175849</v>
+        <v>1.032136469351005</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04046463568777</v>
+        <v>1.047208312426467</v>
       </c>
       <c r="J24">
-        <v>1.029088258804308</v>
+        <v>1.015992397537146</v>
       </c>
       <c r="K24">
-        <v>1.0545271545596</v>
+        <v>1.049144480384771</v>
       </c>
       <c r="L24">
-        <v>1.026991497106949</v>
+        <v>1.011258327623779</v>
       </c>
       <c r="M24">
-        <v>1.058014923588359</v>
+        <v>1.045621795520437</v>
       </c>
       <c r="N24">
-        <v>1.013732366542124</v>
+        <v>1.009245670232639</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024139377112836</v>
+        <v>0.994631786585631</v>
       </c>
       <c r="D25">
-        <v>1.052273729296523</v>
+        <v>1.040794483451737</v>
       </c>
       <c r="E25">
-        <v>1.024696167748393</v>
+        <v>1.002280943080647</v>
       </c>
       <c r="F25">
-        <v>1.055990723261937</v>
+        <v>1.038057469004088</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040769045417153</v>
+        <v>1.049106494090745</v>
       </c>
       <c r="J25">
-        <v>1.029803309469629</v>
+        <v>1.019341173017799</v>
       </c>
       <c r="K25">
-        <v>1.055275370686986</v>
+        <v>1.052790883796263</v>
       </c>
       <c r="L25">
-        <v>1.02778400704869</v>
+        <v>1.014843953239053</v>
       </c>
       <c r="M25">
-        <v>1.058981122105692</v>
+        <v>1.050092381774692</v>
       </c>
       <c r="N25">
-        <v>1.01397168544596</v>
+        <v>1.010374422602266</v>
       </c>
     </row>
   </sheetData>
